--- a/_data/meeting_schedule.xlsx
+++ b/_data/meeting_schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -55,12 +55,15 @@
   </si>
   <si>
     <t>lab organization</t>
+  </si>
+  <si>
+    <t>canceled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,6 +105,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -150,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,7 +191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,7 +403,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,10 +472,13 @@
         <v>42895</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -477,10 +486,10 @@
         <v>42902</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,10 +497,10 @@
         <v>42909</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -499,10 +508,10 @@
         <v>42916</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -510,10 +519,10 @@
         <v>42923</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -521,10 +530,10 @@
         <v>42930</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -532,10 +541,10 @@
         <v>42937</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,10 +552,10 @@
         <v>42944</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -554,10 +563,10 @@
         <v>42951</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -565,10 +574,10 @@
         <v>42958</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -576,10 +585,10 @@
         <v>42965</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,10 +596,10 @@
         <v>42972</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,10 +607,10 @@
         <v>42979</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -609,10 +618,10 @@
         <v>42986</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -620,10 +629,10 @@
         <v>42993</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
